--- a/Config/xlsx/VirtualMicroscopeMetadata.xlsx
+++ b/Config/xlsx/VirtualMicroscopeMetadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlewe\Documents\Google Drive\LMU\Master\SS_21\Praktikum ESA\Geological_Image_Data\Virtual_Microscope_Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlewe\Meine Ablage\LMU\Master\WS_2122\Masterarbeit\thesis_codebase\Config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A7EA1B-65C3-493F-AE72-F946EF6766D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59515597-F620-4235-A9E7-1257EF4D25DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,18 +23,17 @@
     <sheet name="Mixed Sources Olivine Specimen" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Complete Metadata'!$A$1:$E$284</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Mixed Sources Olivine Specimen'!$A$1:$G$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Complete Metadata'!$E$1:$E$284</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Mixed Sources Olivine Specimen'!$A$1:$G$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Olivine Specimen'!$A$1:$E$230</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Olivine Specimen'!$A$1:$E$55</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="407">
   <si>
     <t>Specimen</t>
   </si>
@@ -1236,18 +1235,6 @@
     <t>https://www.virtualmicroscope.org/sites/default/files/html5Assets/s339_01/index2.html?specimen=/node/371</t>
   </si>
   <si>
-    <t>s339_06b</t>
-  </si>
-  <si>
-    <t>s339-06-mugearite</t>
-  </si>
-  <si>
-    <t>mugearite pyroxene olivine</t>
-  </si>
-  <si>
-    <t>https://www.virtualmicroscope.org/sites/default/files/html5Assets/s339_06b/index2.html?specimen=/node/373</t>
-  </si>
-  <si>
     <t>s339_07</t>
   </si>
   <si>
@@ -1266,7 +1253,7 @@
     <t>r2 r4</t>
   </si>
   <si>
-    <t xml:space="preserve">r1 r2 </t>
+    <t>r1 r2 r4</t>
   </si>
 </sst>
 </file>
@@ -1671,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3745,9 +3732,7 @@
       <c r="D133" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -4942,7 +4927,7 @@
         <v>103</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -6119,7 +6104,7 @@
       <c r="E284" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E284" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="E1:E284" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6129,7 +6114,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" workbookViewId="0">
+    <sheetView topLeftCell="A195" workbookViewId="0">
       <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
@@ -9530,7 +9515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E275"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -14329,10 +14314,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14433,7 +14418,7 @@
         <v>172</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -14797,7 +14782,9 @@
       <c r="F21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -14819,7 +14806,7 @@
         <v>180</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -14909,7 +14896,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>410</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -14932,7 +14919,7 @@
         <v>14</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -14975,7 +14962,9 @@
       <c r="F29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -15556,7 +15545,9 @@
       <c r="F56" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G56" s="2"/>
+      <c r="G56" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -15575,115 +15566,115 @@
         <v>403</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G57" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="B58" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C58" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="D58" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>409</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>385</v>
+        <v>173</v>
       </c>
       <c r="B59" t="s">
-        <v>385</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>386</v>
+        <v>175</v>
       </c>
       <c r="D59" t="s">
-        <v>385</v>
+        <v>173</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>387</v>
+        <v>176</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="2"/>
+      <c r="G59" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="D62" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>14</v>
@@ -15692,19 +15683,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B63" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C63" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D63" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
@@ -15713,86 +15704,86 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B64" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C64" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D64" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B65" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C65" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D65" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
       <c r="B66" t="s">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="C66" t="s">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="D66" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>388</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s">
-        <v>389</v>
+        <v>252</v>
       </c>
       <c r="C67" t="s">
-        <v>390</v>
+        <v>212</v>
       </c>
       <c r="D67" t="s">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>391</v>
+        <v>254</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>14</v>
@@ -15801,60 +15792,39 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>251</v>
+        <v>392</v>
       </c>
       <c r="B68" t="s">
-        <v>252</v>
+        <v>393</v>
       </c>
       <c r="C68" t="s">
-        <v>212</v>
+        <v>394</v>
       </c>
       <c r="D68" t="s">
-        <v>253</v>
+        <v>392</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>254</v>
+        <v>395</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>392</v>
-      </c>
-      <c r="B69" t="s">
-        <v>393</v>
-      </c>
-      <c r="C69" t="s">
-        <v>394</v>
-      </c>
-      <c r="D69" t="s">
-        <v>392</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G69" xr:uid="{00000000-0009-0000-0000-000007000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G69">
-      <sortCondition ref="D1:D69"/>
+  <autoFilter ref="A1:G68" xr:uid="{00000000-0009-0000-0000-000007000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G68">
+      <sortCondition ref="D1:D68"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="E29" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
     <hyperlink ref="E27" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
     <hyperlink ref="E21" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="E61" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="E60" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
     <hyperlink ref="E25" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
     <hyperlink ref="E56" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="E60" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="E59" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
     <hyperlink ref="E22" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
     <hyperlink ref="E18" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
     <hyperlink ref="E26" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
@@ -15875,9 +15845,9 @@
     <hyperlink ref="E41" r:id="rId25" xr:uid="{00000000-0004-0000-0700-000018000000}"/>
     <hyperlink ref="E43" r:id="rId26" xr:uid="{00000000-0004-0000-0700-000019000000}"/>
     <hyperlink ref="E51" r:id="rId27" xr:uid="{00000000-0004-0000-0700-00001A000000}"/>
-    <hyperlink ref="E62" r:id="rId28" xr:uid="{00000000-0004-0000-0700-00001B000000}"/>
+    <hyperlink ref="E61" r:id="rId28" xr:uid="{00000000-0004-0000-0700-00001B000000}"/>
     <hyperlink ref="E45" r:id="rId29" xr:uid="{00000000-0004-0000-0700-00001C000000}"/>
-    <hyperlink ref="E68" r:id="rId30" xr:uid="{00000000-0004-0000-0700-00001D000000}"/>
+    <hyperlink ref="E67" r:id="rId30" xr:uid="{00000000-0004-0000-0700-00001D000000}"/>
     <hyperlink ref="E11" r:id="rId31" xr:uid="{00000000-0004-0000-0700-00001E000000}"/>
     <hyperlink ref="E10" r:id="rId32" xr:uid="{00000000-0004-0000-0700-00001F000000}"/>
     <hyperlink ref="E13" r:id="rId33" xr:uid="{00000000-0004-0000-0700-000020000000}"/>
@@ -15885,11 +15855,11 @@
     <hyperlink ref="E12" r:id="rId35" xr:uid="{00000000-0004-0000-0700-000022000000}"/>
     <hyperlink ref="E4" r:id="rId36" xr:uid="{00000000-0004-0000-0700-000023000000}"/>
     <hyperlink ref="E31" r:id="rId37" xr:uid="{00000000-0004-0000-0700-000024000000}"/>
-    <hyperlink ref="E63" r:id="rId38" xr:uid="{00000000-0004-0000-0700-000025000000}"/>
+    <hyperlink ref="E62" r:id="rId38" xr:uid="{00000000-0004-0000-0700-000025000000}"/>
     <hyperlink ref="E30" r:id="rId39" xr:uid="{00000000-0004-0000-0700-000026000000}"/>
-    <hyperlink ref="E64" r:id="rId40" xr:uid="{00000000-0004-0000-0700-000027000000}"/>
-    <hyperlink ref="E65" r:id="rId41" xr:uid="{00000000-0004-0000-0700-000028000000}"/>
-    <hyperlink ref="E66" r:id="rId42" xr:uid="{00000000-0004-0000-0700-000029000000}"/>
+    <hyperlink ref="E63" r:id="rId40" xr:uid="{00000000-0004-0000-0700-000027000000}"/>
+    <hyperlink ref="E64" r:id="rId41" xr:uid="{00000000-0004-0000-0700-000028000000}"/>
+    <hyperlink ref="E65" r:id="rId42" xr:uid="{00000000-0004-0000-0700-000029000000}"/>
     <hyperlink ref="E50" r:id="rId43" xr:uid="{00000000-0004-0000-0700-00002A000000}"/>
     <hyperlink ref="E49" r:id="rId44" xr:uid="{00000000-0004-0000-0700-00002B000000}"/>
     <hyperlink ref="E35" r:id="rId45" xr:uid="{00000000-0004-0000-0700-00002C000000}"/>
@@ -15910,12 +15880,11 @@
     <hyperlink ref="E47" r:id="rId60" xr:uid="{00000000-0004-0000-0700-00003B000000}"/>
     <hyperlink ref="E53" r:id="rId61" xr:uid="{00000000-0004-0000-0700-00003C000000}"/>
     <hyperlink ref="E54" r:id="rId62" xr:uid="{00000000-0004-0000-0700-00003D000000}"/>
-    <hyperlink ref="E59" r:id="rId63" xr:uid="{00000000-0004-0000-0700-00003E000000}"/>
-    <hyperlink ref="E67" r:id="rId64" xr:uid="{00000000-0004-0000-0700-00003F000000}"/>
-    <hyperlink ref="E69" r:id="rId65" xr:uid="{00000000-0004-0000-0700-000040000000}"/>
+    <hyperlink ref="E58" r:id="rId63" xr:uid="{00000000-0004-0000-0700-00003E000000}"/>
+    <hyperlink ref="E66" r:id="rId64" xr:uid="{00000000-0004-0000-0700-00003F000000}"/>
+    <hyperlink ref="E68" r:id="rId65" xr:uid="{00000000-0004-0000-0700-000040000000}"/>
     <hyperlink ref="E55" r:id="rId66" xr:uid="{00000000-0004-0000-0700-000041000000}"/>
-    <hyperlink ref="E57" r:id="rId67" xr:uid="{00000000-0004-0000-0700-000042000000}"/>
-    <hyperlink ref="E58" r:id="rId68" xr:uid="{00000000-0004-0000-0700-000043000000}"/>
+    <hyperlink ref="E57" r:id="rId67" xr:uid="{00000000-0004-0000-0700-000043000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Config/xlsx/VirtualMicroscopeMetadata.xlsx
+++ b/Config/xlsx/VirtualMicroscopeMetadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlewe\Meine Ablage\LMU\Master\WS_2122\Masterarbeit\thesis_codebase\Config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59515597-F620-4235-A9E7-1257EF4D25DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4676E74B-E7F5-4ED0-8559-C5FBC833E711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="760" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete Metadata" sheetId="1" r:id="rId1"/>
@@ -1355,8 +1355,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1658,20 +1658,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10003</v>
       </c>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10009</v>
       </c>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10017</v>
       </c>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10018</v>
       </c>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10020</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10021</v>
       </c>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10022</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10023</v>
       </c>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10024</v>
       </c>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10029</v>
       </c>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10031</v>
       </c>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10032</v>
       </c>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10044</v>
       </c>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10045</v>
       </c>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10046</v>
       </c>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10047</v>
       </c>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10048</v>
       </c>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10049</v>
       </c>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10050</v>
       </c>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10056</v>
       </c>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10057</v>
       </c>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10058</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10059</v>
       </c>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10060</v>
       </c>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10061</v>
       </c>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10062</v>
       </c>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10064</v>
       </c>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10065</v>
       </c>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10067</v>
       </c>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10068</v>
       </c>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10069</v>
       </c>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10070</v>
       </c>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10071</v>
       </c>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10072</v>
       </c>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10073</v>
       </c>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10074</v>
       </c>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10082</v>
       </c>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10085</v>
       </c>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>10092</v>
       </c>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10093</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10094</v>
       </c>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>12002</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>12004</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>12005</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>12006</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>12007</v>
       </c>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>12008</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12009</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>12010</v>
       </c>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>12011</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>12012</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>12013</v>
       </c>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>12014</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>12015</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>12016</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>12017</v>
       </c>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>12018</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>12019</v>
       </c>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12020</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>12021</v>
       </c>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>12022</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>12031</v>
       </c>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>12034</v>
       </c>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12035</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>12036</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12038</v>
       </c>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>12039</v>
       </c>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>12040</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>12043</v>
       </c>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>12045</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>12046</v>
       </c>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>12047</v>
       </c>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>12051</v>
       </c>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>12052</v>
       </c>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>12053</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>12054</v>
       </c>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>12055</v>
       </c>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12056</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>12061</v>
       </c>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>12062</v>
       </c>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>12063</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>12064</v>
       </c>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>12065</v>
       </c>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>12072</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>12073</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>12075</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>12076</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>12077</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>14006</v>
       </c>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>14041</v>
       </c>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>14042</v>
       </c>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>14045</v>
       </c>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>14047</v>
       </c>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>14049</v>
       </c>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>14051</v>
       </c>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>14053</v>
       </c>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>14055</v>
       </c>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>14063</v>
       </c>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>14064</v>
       </c>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>14066</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>14068</v>
       </c>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>14069</v>
       </c>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>14070</v>
       </c>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>14072</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14073</v>
       </c>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>14074</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>14076</v>
       </c>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>14077</v>
       </c>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>14082</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>14083</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>14169</v>
       </c>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>14171</v>
       </c>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>14172</v>
       </c>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>14179</v>
       </c>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>14181</v>
       </c>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>14255</v>
       </c>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>14264</v>
       </c>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>14265</v>
       </c>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>14268</v>
       </c>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>14270</v>
       </c>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>14271</v>
       </c>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>14272</v>
       </c>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>14273</v>
       </c>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>14274</v>
       </c>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>14276</v>
       </c>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>14301</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>14303</v>
       </c>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>14304</v>
       </c>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>14305</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>14306</v>
       </c>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>14307</v>
       </c>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>14309</v>
       </c>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>14310</v>
       </c>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>14311</v>
       </c>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>14312</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>14313</v>
       </c>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>14314</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14315</v>
       </c>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>14316</v>
       </c>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>14317</v>
       </c>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>14318</v>
       </c>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>14319</v>
       </c>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14320</v>
       </c>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>14321</v>
       </c>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>15015</v>
       </c>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>15016</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>15027</v>
       </c>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>15028</v>
       </c>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>15058</v>
       </c>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>15065</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>15075</v>
       </c>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>15076</v>
       </c>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>15085</v>
       </c>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>15086</v>
       </c>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>15095</v>
       </c>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>15105</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>15115</v>
       </c>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>15116</v>
       </c>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>15117</v>
       </c>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>15118</v>
       </c>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>15119</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>15125</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>15205</v>
       </c>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>15206</v>
       </c>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>15245</v>
       </c>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>15255</v>
       </c>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>15256</v>
       </c>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>15257</v>
       </c>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>15265</v>
       </c>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>15266</v>
       </c>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>15285</v>
       </c>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>15286</v>
       </c>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>15288</v>
       </c>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>15289</v>
       </c>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>15295</v>
       </c>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>15298</v>
       </c>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>15299</v>
       </c>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>15306</v>
       </c>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>15308</v>
       </c>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>15315</v>
       </c>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>15324</v>
       </c>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>15325</v>
       </c>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>15330</v>
       </c>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>15356</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>15357</v>
       </c>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>15359</v>
       </c>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>15362</v>
       </c>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>15365</v>
       </c>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>15366</v>
       </c>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="E190" s="2"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>15369</v>
       </c>
@@ -4620,7 +4620,7 @@
       </c>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>15370</v>
       </c>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="E192" s="2"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>15371</v>
       </c>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>15376</v>
       </c>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>15379</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>15380</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>15382</v>
       </c>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>15385</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>15386</v>
       </c>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>15387</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>15388</v>
       </c>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>15405</v>
       </c>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>15415</v>
       </c>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>15418</v>
       </c>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>15425</v>
       </c>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>15426</v>
       </c>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>15427</v>
       </c>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>15434</v>
       </c>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>15435</v>
       </c>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>15436</v>
       </c>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>15445</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>15455</v>
       </c>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>15459</v>
       </c>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>15465</v>
       </c>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>15466</v>
       </c>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>15468</v>
       </c>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>15475</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>15476</v>
       </c>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>15485</v>
       </c>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>15486</v>
       </c>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="E220" s="2"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>15495</v>
       </c>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="E221" s="2"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>15498</v>
       </c>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="E222" s="2"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>15499</v>
       </c>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="E223" s="2"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>15505</v>
       </c>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="E224" s="2"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>15515</v>
       </c>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="E225" s="2"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>15529</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>15535</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>15536</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>15545</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>15546</v>
       </c>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="E230" s="2"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>15547</v>
       </c>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>15555</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>15556</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>15557</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>15558</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>15565</v>
       </c>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>15595</v>
       </c>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>15596</v>
       </c>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>15597</v>
       </c>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>15598</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>15605</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>15606</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>15607</v>
       </c>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>15608</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>15610</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>15614</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>15616</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>15620</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>15622</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>15623</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>15633</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>15636</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>15641</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>15643</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>15647</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>15648</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>15651</v>
       </c>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="E257" s="2"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>15658</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>15661</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>15663</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>15665</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>15666</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>15669</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>15672</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>15674</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>15675</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>15676</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>15678</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>15682</v>
       </c>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="E269" s="2"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>60025</v>
       </c>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="E270" s="2"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>61016</v>
       </c>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="E271" s="2"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>61295</v>
       </c>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="E272" s="2"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>64002</v>
       </c>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="E273" s="2"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>65015</v>
       </c>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="E274" s="2"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>66095</v>
       </c>
@@ -5962,7 +5962,7 @@
       </c>
       <c r="E275" s="2"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>67016</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>68501</v>
       </c>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="E277" s="2"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>70017</v>
       </c>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="E278" s="2"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>70181</v>
       </c>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="E279" s="2"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>71035</v>
       </c>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="E280" s="2"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>72275</v>
       </c>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="E281" s="2"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>74220</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>76535</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>78235</v>
       </c>
@@ -6114,20 +6114,20 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" customWidth="1"/>
+    <col min="4" max="4" width="52.88671875" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10003</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10009</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10017</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10018</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10020</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10021</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10022</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10023</v>
       </c>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10024</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10029</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10031</v>
       </c>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10032</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10044</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10045</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10046</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10047</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10048</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10049</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10050</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10056</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10057</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10058</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10059</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10060</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10061</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10062</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10064</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10065</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10067</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10068</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10069</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10070</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10071</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10072</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10073</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10074</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10082</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10085</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>10092</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10093</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10094</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>12002</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>12005</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>12007</v>
       </c>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>12010</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>12011</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>12013</v>
       </c>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12016</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>12017</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>12019</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>12021</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>12022</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>12031</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>12034</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>12038</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>12039</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>12043</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>12045</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12046</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>12047</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>12051</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>12052</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>12053</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12054</v>
       </c>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>12055</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12056</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>12061</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>12062</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>12063</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>12064</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>12065</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>12073</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>14006</v>
       </c>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>14041</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14042</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>14045</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>14047</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>14049</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>14051</v>
       </c>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>14053</v>
       </c>
@@ -7308,7 +7308,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>14055</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>14063</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>14064</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>14066</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>14068</v>
       </c>
@@ -7382,7 +7382,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>14069</v>
       </c>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>14070</v>
       </c>
@@ -7412,7 +7412,7 @@
       </c>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>14073</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>14074</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>14076</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>14077</v>
       </c>
@@ -7472,7 +7472,7 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>14082</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>14083</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>14169</v>
       </c>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>14171</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>14172</v>
       </c>
@@ -7550,7 +7550,7 @@
       </c>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>14179</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>14181</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>14255</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>14264</v>
       </c>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>14265</v>
       </c>
@@ -7622,7 +7622,7 @@
       </c>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>14268</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>14270</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>14271</v>
       </c>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14272</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>14273</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>14274</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>14276</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>14301</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>14303</v>
       </c>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>14304</v>
       </c>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>14305</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>14306</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>14307</v>
       </c>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>14309</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>14310</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>14311</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>14312</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>14313</v>
       </c>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>14314</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>14315</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>14316</v>
       </c>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>14317</v>
       </c>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>14318</v>
       </c>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>14319</v>
       </c>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>14320</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>14321</v>
       </c>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>15015</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>15027</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>15028</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>15058</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>15065</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>15075</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>15076</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>15085</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>15086</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>15095</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>15115</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>15116</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>15117</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>15118</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>15119</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>15125</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>15205</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>15206</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>15245</v>
       </c>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>15255</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>15256</v>
       </c>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>15257</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>15265</v>
       </c>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>15266</v>
       </c>
@@ -8360,7 +8360,7 @@
       </c>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>15285</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>15286</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>15288</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>15289</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>15295</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>15298</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>15299</v>
       </c>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>15306</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>15308</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>15315</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>15324</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>15325</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>15330</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>15356</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>15357</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>15359</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>15362</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>15365</v>
       </c>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>15366</v>
       </c>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>15369</v>
       </c>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>15370</v>
       </c>
@@ -8662,7 +8662,7 @@
       </c>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>15371</v>
       </c>
@@ -8677,7 +8677,7 @@
       </c>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>15376</v>
       </c>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>15382</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>15385</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>15386</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>15387</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>15388</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>15405</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>15415</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>15418</v>
       </c>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>15425</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>15426</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>15427</v>
       </c>
@@ -8854,7 +8854,7 @@
       </c>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>15434</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>15435</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>15436</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>15445</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>15455</v>
       </c>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>15459</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>15465</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>15466</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>15468</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>15475</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>15476</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>15485</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>15486</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>15495</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>15498</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>15499</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>15505</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>15515</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>15529</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>15558</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>15565</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>15595</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>15596</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>15597</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>15608</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>15648</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>15651</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>15666</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>15682</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>60025</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>61016</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>61295</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>64002</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>65015</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>66095</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>67016</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>68501</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>70017</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>70181</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>71035</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>72275</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>74220</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>76535</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>78235</v>
       </c>
@@ -9519,16 +9519,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12004</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12006</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12008</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12009</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>12012</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12014</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12015</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12018</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12020</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12035</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12036</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12040</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12072</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12075</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12076</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12077</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14072</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15016</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15105</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15379</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>15380</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15535</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15536</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>15545</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>15546</v>
       </c>
@@ -9968,7 +9968,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>15547</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>15555</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>15556</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>15557</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>15598</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15605</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>15606</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>15607</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>15610</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>15614</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>15616</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>15620</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>15622</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>15623</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>15633</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>15636</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>15641</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>15643</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>15647</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>15658</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>15661</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>15663</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>15665</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>15669</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>15672</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>15674</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>15675</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>15676</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>15678</v>
       </c>
@@ -10461,664 +10461,664 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E190" s="2"/>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E192" s="2"/>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E220" s="2"/>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E221" s="2"/>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E222" s="2"/>
     </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E223" s="2"/>
     </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E224" s="2"/>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E225" s="2"/>
     </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E226" s="2"/>
     </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E227" s="2"/>
     </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E228" s="2"/>
     </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E230" s="2"/>
     </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E240" s="2"/>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E241" s="2"/>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E248" s="2"/>
     </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E249" s="2"/>
     </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E250" s="2"/>
     </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E251" s="2"/>
     </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E252" s="2"/>
     </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E253" s="2"/>
     </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E254" s="2"/>
     </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E255" s="2"/>
     </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E256" s="2"/>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E257" s="2"/>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E258" s="2"/>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E259" s="2"/>
     </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E260" s="2"/>
     </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E261" s="2"/>
     </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E262" s="2"/>
     </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E263" s="2"/>
     </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E264" s="2"/>
     </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E265" s="2"/>
     </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E266" s="2"/>
     </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E267" s="2"/>
     </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E268" s="2"/>
     </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E269" s="2"/>
     </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E270" s="2"/>
     </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E271" s="2"/>
     </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E272" s="2"/>
     </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E273" s="2"/>
     </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E274" s="2"/>
     </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E275" s="2"/>
     </row>
   </sheetData>
@@ -11135,16 +11135,16 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12007</v>
       </c>
@@ -11176,7 +11176,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12011</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12017</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12019</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>12021</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12031</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12039</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12043</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12052</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12053</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12055</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12065</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15058</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15065</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15075</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15076</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15085</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15115</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15117</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15118</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>15125</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15388</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15475</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>15476</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>15485</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>15486</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>15495</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>15499</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>15595</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>15596</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15597</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>15651</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>15666</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>15682</v>
       </c>
@@ -11672,16 +11672,16 @@
       <selection sqref="A1:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
     <col min="4" max="4" width="52" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10003</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10017</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10020</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10022</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10024</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10029</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10031</v>
       </c>
@@ -11800,7 +11800,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10032</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10044</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10045</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10047</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10049</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10050</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10057</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10058</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10062</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10069</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>12016</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12022</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12045</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12046</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>12047</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12051</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12054</v>
       </c>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>12056</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>12061</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>12062</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12063</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>12064</v>
       </c>
@@ -12140,16 +12140,16 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="49.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="49.5546875" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12038</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>61295</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>67016</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>72275</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
     </row>
   </sheetData>
@@ -12241,15 +12241,15 @@
       <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10009</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10018</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10021</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10023</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10046</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10048</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10056</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10059</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10060</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10061</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10064</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10065</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10067</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10068</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10070</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10071</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10072</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10073</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10074</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10082</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10085</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10092</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10093</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10094</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>12010</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>12034</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>12073</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14006</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>14041</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14042</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14045</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>14047</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>14049</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>14051</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>14055</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>14063</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>14064</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14066</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>14068</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14069</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>14070</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>14073</v>
       </c>
@@ -12851,7 +12851,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>14074</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>14076</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>14077</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14082</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>14083</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>14169</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14171</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>14172</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>14179</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>14181</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>14255</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>14264</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>14265</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14268</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>14270</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>14271</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>14272</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>14273</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>14274</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>14276</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>14301</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>14303</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>14304</v>
       </c>
@@ -13173,7 +13173,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>14305</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>14306</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>14307</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>14309</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>14310</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>14311</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>14312</v>
       </c>
@@ -13271,7 +13271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>14313</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>14314</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14315</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>14316</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>14317</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>14318</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>14319</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>14320</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>14321</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>15015</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>15027</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>15028</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>15086</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>15095</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>15119</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>15205</v>
       </c>
@@ -13495,7 +13495,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>15206</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>15245</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>15255</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>15256</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>15257</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>15265</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>15266</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>15285</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>15286</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>15288</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>15289</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>15295</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>15298</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>15299</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>15306</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>15308</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>15315</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>15324</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>15325</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>15330</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>15356</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>15357</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>15359</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>15365</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>15366</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>15369</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>15370</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>15371</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>15376</v>
       </c>
@@ -13901,7 +13901,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>15382</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>15385</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>15386</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>15387</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>15405</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>15425</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>15426</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>15427</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>15434</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>15435</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>15436</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>15459</v>
       </c>
@@ -14069,7 +14069,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>15465</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>15466</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>15468</v>
       </c>
@@ -14111,7 +14111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>15498</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>15505</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>15515</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>15529</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>15558</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>15565</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>15608</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>15648</v>
       </c>
@@ -14223,7 +14223,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>64002</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>65015</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>66095</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>68501</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>70181</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>74220</v>
       </c>
@@ -14316,22 +14316,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="79.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="79.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="47.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>142</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>368</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -14398,7 +14398,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>207</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -14486,7 +14486,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>214</v>
       </c>
@@ -14507,7 +14507,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -14528,7 +14528,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -14549,7 +14549,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>255</v>
       </c>
@@ -14570,7 +14570,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>271</v>
       </c>
@@ -14591,7 +14591,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>263</v>
       </c>
@@ -14612,7 +14612,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>324</v>
       </c>
@@ -14656,7 +14656,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>200</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>181</v>
       </c>
@@ -14721,7 +14721,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -14742,7 +14742,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>327</v>
       </c>
@@ -14763,7 +14763,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>156</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>196</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>188</v>
       </c>
@@ -14853,7 +14853,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -14922,7 +14922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>222</v>
       </c>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>287</v>
       </c>
@@ -14989,7 +14989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>279</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>335</v>
       </c>
@@ -15033,7 +15033,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>339</v>
       </c>
@@ -15054,7 +15054,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>229</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>310</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>313</v>
       </c>
@@ -15121,7 +15121,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>316</v>
       </c>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>344</v>
       </c>
@@ -15163,7 +15163,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>231</v>
       </c>
@@ -15184,7 +15184,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>331</v>
       </c>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>234</v>
       </c>
@@ -15226,7 +15226,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>354</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>239</v>
       </c>
@@ -15270,7 +15270,7 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>363</v>
       </c>
@@ -15291,7 +15291,7 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>248</v>
       </c>
@@ -15312,7 +15312,7 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>358</v>
       </c>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>373</v>
       </c>
@@ -15354,7 +15354,7 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>320</v>
       </c>
@@ -15375,7 +15375,7 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>306</v>
       </c>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>303</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>242</v>
       </c>
@@ -15440,7 +15440,7 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>224</v>
       </c>
@@ -15461,7 +15461,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>377</v>
       </c>
@@ -15482,7 +15482,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>381</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>396</v>
       </c>
@@ -15526,7 +15526,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>168</v>
       </c>
@@ -15549,7 +15549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>400</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>385</v>
       </c>
@@ -15593,7 +15593,7 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>160</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>246</v>
       </c>
@@ -15660,7 +15660,7 @@
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>283</v>
       </c>
@@ -15681,7 +15681,7 @@
       </c>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>291</v>
       </c>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>295</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>299</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>388</v>
       </c>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>251</v>
       </c>
@@ -15790,7 +15790,7 @@
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>392</v>
       </c>
